--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wondernugget\Documents\GitHub\jazzin10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B831A8-95E1-4528-8A20-ED2DDBB1D0C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E293DA51-E8E3-4709-B3B9-D4F1E0784629}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="36" windowWidth="4788" windowHeight="11100" xr2:uid="{2AE233CB-A909-415B-B94D-684B7F701A4C}"/>
   </bookViews>
@@ -381,396 +381,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DD5E3C-3AB0-4AB5-A768-2F4BA8548A56}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1">
         <f>A1*B1</f>
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <f>A1*B2</f>
-        <v>6.25</v>
+        <f t="shared" ref="C2:C33" si="0">A2*B2</f>
+        <v>6.06</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <f>A1*B3</f>
-        <v>9.375</v>
+        <f t="shared" si="0"/>
+        <v>9.09</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <f>A2*B4</f>
-        <v>12.5</v>
+        <f t="shared" si="0"/>
+        <v>12.12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C32" si="0">A3*B5</f>
-        <v>15.625</v>
+        <f t="shared" si="0"/>
+        <v>15.149999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>18.75</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>21.875</v>
+        <v>21.209999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>28.125</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>31.25</v>
+        <v>30.299999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>34.375</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>40.625</v>
+        <v>39.39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>43.75</v>
+        <v>42.419999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>46.875</v>
+        <v>45.449999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>53.125</v>
+        <v>51.51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>56.25</v>
+        <v>54.54</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B19">
         <v>19</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>59.375</v>
+        <v>57.569999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>60.599999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B21">
         <v>21</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>65.625</v>
+        <v>63.629999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B22">
         <v>22</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>68.75</v>
+        <v>66.66</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B23">
         <v>23</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>71.875</v>
+        <v>69.69</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B24">
         <v>24</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>72.72</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B25">
         <v>25</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>78.125</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B26">
         <v>26</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>81.25</v>
+        <v>78.78</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B27">
         <v>27</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>84.375</v>
+        <v>81.809999999999988</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B28">
         <v>28</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>87.5</v>
+        <v>84.839999999999989</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B29">
         <v>29</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>90.625</v>
+        <v>87.86999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B30">
         <v>30</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>93.75</v>
+        <v>90.899999999999991</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>96.875</v>
+        <v>93.929999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3.125</v>
+        <v>3.03</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3.03</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>99.99</v>
       </c>
     </row>
   </sheetData>
